--- a/data/trans_dic/P40B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P40B_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyos estudios de más alto nivel terminados son estudios superiores o universitarios</t>
+          <t>Población cuyos estudios de más alto nivel terminados son estudios superiores o universitarios (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -661,57 +710,87 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>24,83%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24,81%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>54,76%</t>
+          <t>34,71%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>25,3%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>29,13%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>24,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>28,43%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>31,78%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>65,8%</t>
+          <t>28,8%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>32,07%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>49,74%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>29,87%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>32,06%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>25,31%</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>26,57%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>28,3%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>59,96%</t>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>26,8%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>28,66%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>42,31%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>27,45%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>30,5%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,4; 33,19</t>
+          <t>20,6; 33,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,45; 33,92</t>
+          <t>17,59; 34,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,34; 33,46</t>
+          <t>18,25; 33,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>44,86; 64,54</t>
+          <t>25,46; 44,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,04; 30,57</t>
+          <t>16,72; 33,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,2; 35,32</t>
+          <t>20,54; 39,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,53; 38,72</t>
+          <t>18,03; 30,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>55,86; 73,78</t>
+          <t>22,91; 35,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,18; 29,91</t>
+          <t>25,89; 39,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>21,93; 32,11</t>
+          <t>40,56; 58,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,33; 34,02</t>
+          <t>21,24; 39,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>53,12; 66,3</t>
+          <t>23,57; 40,54</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>20,63; 30,44</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>21,51; 32,23</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>23,4; 33,8</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>36,35; 49,39</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>21,41; 33,39</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>24,18; 37,37</t>
         </is>
       </c>
     </row>
@@ -801,57 +910,87 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>33,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33,15%</t>
+          <t>33,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>53,49%</t>
+          <t>36,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>28,59%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>36,87%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>42,59%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>41,35%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>46,23%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>56,44%</t>
+          <t>42,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>47,26%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>51,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>39,7%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>40,93%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>36,06%</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>36,84%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>39,27%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>54,92%</t>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>37,74%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>40,04%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>43,39%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>33,96%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>38,85%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,37; 38,11</t>
+          <t>22,09; 37,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,9; 39,95</t>
+          <t>26,92; 41,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,38; 41,04</t>
+          <t>26,25; 41,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>43,15; 62,57</t>
+          <t>25,1; 46,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,37; 49,77</t>
+          <t>20,02; 41,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,75; 47,46</t>
+          <t>27,83; 47,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>40,0; 53,07</t>
+          <t>36,06; 49,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,59; 63,57</t>
+          <t>36,11; 48,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,14; 41,39</t>
+          <t>40,83; 53,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32,1; 42,1</t>
+          <t>43,52; 58,79</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>33,86; 44,52</t>
+          <t>31,93; 46,81</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>48,57; 61,08</t>
+          <t>33,2; 48,68</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>30,43; 41,44</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>32,57; 42,62</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>34,65; 45,4</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>35,68; 50,04</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>27,7; 40,61</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>32,83; 45,06</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>43,57%</t>
+          <t>43,58%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>39,38%</t>
+          <t>40,04%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>42,4%</t>
+          <t>43,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>50,0%</t>
+          <t>45,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>45,63%</t>
+          <t>23,56%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>46,8%</t>
+          <t>20,68%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>45,5%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>46,64%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>49,86%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>56,04%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>44,61%</t>
-        </is>
-      </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>43,18%</t>
+          <t>57,17%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>46,21%</t>
+          <t>34,9%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>52,84%</t>
+          <t>29,41%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>44,55%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>43,42%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>46,5%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>51,42%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>28,89%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>24,84%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>36,91; 50,51</t>
+          <t>37,28; 50,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>33,3; 46,25</t>
+          <t>33,96; 46,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>35,63; 48,94</t>
+          <t>36,23; 49,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>42,43; 57,15</t>
+          <t>37,41; 53,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>40,24; 50,95</t>
+          <t>18,31; 30,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>41,8; 52,14</t>
+          <t>15,03; 27,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>44,3; 54,95</t>
+          <t>40,44; 50,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>49,1; 61,93</t>
+          <t>41,33; 51,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>40,47; 49,03</t>
+          <t>44,77; 55,27</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>38,77; 46,9</t>
+          <t>50,73; 62,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>41,86; 49,95</t>
+          <t>29,3; 41,08</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>47,98; 57,54</t>
+          <t>23,91; 35,76</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>40,37; 48,78</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>39,57; 47,86</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>41,83; 50,55</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>46,34; 56,26</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>25,0; 33,1</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>20,82; 29,61</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35,5%</t>
+          <t>35,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>36,92%</t>
+          <t>36,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>40,38%</t>
+          <t>40,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>42,37%</t>
+          <t>38,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>19,65%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>26,96%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>37,32%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>34,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>33,58%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>45,24%</t>
+          <t>33,81%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>36,45%</t>
+          <t>33,62%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>35,42%</t>
+          <t>37,68%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>36,93%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>43,72%</t>
+          <t>22,4%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>36,46%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>35,15%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>36,99%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>38,18%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>20,05%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>24,73%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,99; 42,35</t>
+          <t>30,3; 41,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,15; 42,74</t>
+          <t>30,86; 42,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,77; 47,53</t>
+          <t>34,95; 46,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>35,42; 49,6</t>
+          <t>31,74; 44,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>32,03; 42,5</t>
+          <t>13,98; 26,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,23; 39,27</t>
+          <t>21,39; 33,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,7; 38,48</t>
+          <t>31,87; 42,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,15; 51,36</t>
+          <t>28,53; 38,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>32,4; 40,49</t>
+          <t>29,15; 38,54</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31,45; 39,51</t>
+          <t>32,24; 43,17</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>33,28; 40,86</t>
+          <t>15,57; 26,99</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>38,5; 48,45</t>
+          <t>17,15; 27,41</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>32,43; 40,24</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>31,36; 39,0</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>33,21; 41,06</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>34,37; 42,85</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>16,26; 24,38</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>20,88; 28,83</t>
         </is>
       </c>
     </row>
@@ -1221,57 +1510,87 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>25,96%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>24,95%</t>
+          <t>24,98%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>35,14%</t>
+          <t>24,53%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>15,33%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>17,9%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>18,07%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>22,21%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>21,69%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>29,14%</t>
+          <t>22,38%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>21,84%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>25,75%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>12,07%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>12,4%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
           <t>19,48%</t>
         </is>
       </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>24,08%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>23,29%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>32,0%</t>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>24,03%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>23,38%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>25,15%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>13,62%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>15,1%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,06; 26,19</t>
+          <t>15,99; 26,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,36; 32,57</t>
+          <t>20,43; 33,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,81; 31,37</t>
+          <t>19,65; 31,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27,73; 42,22</t>
+          <t>18,59; 32,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,05; 23,04</t>
+          <t>10,52; 21,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,3; 29,16</t>
+          <t>13,02; 24,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,87; 27,6</t>
+          <t>13,43; 23,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,4; 35,51</t>
+          <t>17,13; 27,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,2; 23,3</t>
+          <t>17,0; 27,88</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,26; 28,64</t>
+          <t>19,78; 31,94</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>19,92; 27,51</t>
+          <t>8,18; 16,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>27,36; 36,98</t>
+          <t>7,93; 17,3</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>16,06; 22,79</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>19,89; 28,14</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>19,7; 27,33</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>20,91; 29,66</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>10,27; 17,5</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>11,7; 18,72</t>
         </is>
       </c>
     </row>
@@ -1361,57 +1710,87 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>9,28%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>12,14%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>7,37%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>9,65%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>10,07%</t>
-        </is>
-      </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>13,0%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>10,03%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>9,49%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>7,35%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
           <t>11,84%</t>
         </is>
       </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>13,48%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>13,11%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>16,8%</t>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>13,45%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>13,17%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>16,13%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>7,67%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>9,36%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,13; 23,03</t>
+          <t>13,1; 23,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,98; 25,46</t>
+          <t>13,03; 25,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,64; 22,77</t>
+          <t>12,15; 22,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,77; 29,84</t>
+          <t>17,96; 32,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,56; 11,29</t>
+          <t>5,09; 16,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,48; 14,15</t>
+          <t>7,28; 18,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,69; 14,28</t>
+          <t>4,87; 12,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,21; 20,9</t>
+          <t>6,54; 14,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>9,13; 15,14</t>
+          <t>6,92; 14,03</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,13; 17,52</t>
+          <t>5,94; 15,1</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10,14; 16,33</t>
+          <t>3,07; 13,37</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,5; 22,03</t>
+          <t>3,9; 14,04</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>9,15; 15,0</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>10,3; 17,12</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>10,36; 16,55</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>12,63; 20,72</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>4,65; 12,2</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>6,5; 13,53</t>
         </is>
       </c>
     </row>
@@ -1501,57 +1910,87 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>30,44%</t>
+          <t>30,64%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>31,39%</t>
+          <t>31,73%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>43,21%</t>
+          <t>34,78%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>29,22%</t>
+          <t>20,44%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>24,01%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>32,5%</t>
+          <t>29,2%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>42,0%</t>
+          <t>30,7%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>29,54%</t>
+          <t>32,55%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>37,65%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>22,83%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>42,61%</t>
+          <t>23,04%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>29,53%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>30,67%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>32,15%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>36,25%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>21,64%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>23,52%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>26,83; 32,33</t>
+          <t>27,35; 32,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>27,93; 33,28</t>
+          <t>28,15; 33,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,92; 34,43</t>
+          <t>29,1; 34,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>39,68; 46,38</t>
+          <t>31,69; 38,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,06; 31,36</t>
+          <t>17,71; 23,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>28,21; 32,73</t>
+          <t>21,22; 27,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>30,19; 34,69</t>
+          <t>26,74; 31,57</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>38,87; 45,16</t>
+          <t>28,58; 33,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27,87; 31,26</t>
+          <t>30,43; 34,99</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>28,75; 32,25</t>
+          <t>34,96; 40,49</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>30,3; 33,69</t>
+          <t>20,57; 25,74</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>40,32; 44,96</t>
+          <t>20,54; 25,62</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>27,84; 31,42</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>28,88; 32,42</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>30,3; 33,92</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>34,11; 38,51</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>19,68; 23,61</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>21,69; 25,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos estudios de más alto nivel terminados son estudios superiores o universitarios (tasa de respuesta: 99,83%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>135878</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>130154</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>128663</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>162056</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10644</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>12838</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>111097</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>148310</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>237381</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>11171</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>12359</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>246975</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>278464</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>293489</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>399437</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>21815</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>25197</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>105691; 173471</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>92207; 178363</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>93118; 172518</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>118878; 206471</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7037; 14161</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>9049; 17572</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>83465; 142706</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>117952; 183284</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>133056; 203983</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>193555; 278121</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7942; 14652</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>9086; 15629</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>201295; 297070</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>223556; 334854</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>239620; 346102</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>343172; 466340</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>17013; 26535</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>19974; 30874</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>169307</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>191278</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>200701</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>213185</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14141</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>17904</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>220961</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>213904</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>244481</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>257590</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>18372</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>18830</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>390268</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>405183</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>445182</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>470775</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>32513</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>36734</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>124481; 211115</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>152255; 234988</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>156006; 246405</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>145567; 272209</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9902; 20397</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>13515; 23173</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>187101; 257851</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>183423; 245741</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>211231; 278555</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>219843; 296971</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>14776; 21659</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>15273; 22395</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>329289; 448519</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>349689; 457523</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>385199; 504739</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>387104; 542936</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>26516; 38879</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>31043; 42612</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>268.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>287.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>292.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>294517</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>271745</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>292446</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>303180</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>14184</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12447</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>315869</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>332480</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>353609</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>406384</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>18620</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>16131</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>610386</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>604225</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>646055</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>709564</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>32804</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>28578</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>251995; 338782</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>230508; 318680</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>246403; 337643</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>250256; 355574</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11026; 18076</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9049; 16561</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>280718; 351683</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>294671; 369733</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>317468; 391936</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>360608; 446578</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15633; 21917</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>13113; 19615</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>553167; 668310</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>550630; 666046</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>581085; 702277</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>639391; 776344</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>28396; 37592</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>23950; 34065</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>226700</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>235459</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>257976</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>253574</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11452</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>15074</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>262443</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>227674</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>221829</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>247733</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>10669</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>11986</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>489144</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>463134</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>479805</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>22121</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>27060</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>193432; 266208</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>198755; 274615</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>222752; 298563</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>208047; 294135</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8147; 15390</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>11960; 18937</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>224159; 300215</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>192125; 261080</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>192335; 254353</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>211969; 283854</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>8104; 14046</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>9179; 14666</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>435184; 539958</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>413208; 513876</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>430805; 532649</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>451295; 562596</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>17934; 26891</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>22853; 31551</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>106840</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>128537</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>122863</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>121421</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6820</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8027</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>90790</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>112202</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>112523</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>133102</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5885</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>5772</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>197630</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>240739</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>235386</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>254523</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>12705</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>13799</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>81833; 134625</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>102247; 165832</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>96620; 152988</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>92008; 158786</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4678; 9378</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5839; 11098</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>67488; 116478</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>85890; 139389</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>87579; 143624</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>102261; 165114</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>3988; 8194</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3694; 8058</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>162906; 231131</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>199225; 281868</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>198351; 275199</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>211593; 300165</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>9579; 16319</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>10693; 17116</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>97407</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>96613</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>90792</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>138000</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>5534</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>53886</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>64126</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>66054</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>68278</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>4139</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>4646</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>151293</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>160739</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>156847</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>206278</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>8484</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>10179</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>71633; 127701</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>68603; 131598</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>64710; 121056</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>100472; 180298</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2385; 7535</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>3316; 8563</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>35622; 91549</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>43727; 94446</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>45580; 92367</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>42722; 108653</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1956; 8521</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>2463; 8876</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>116983; 191729</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>123132; 204616</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>123392; 197079</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>161553; 264930</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>5142; 13488</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>7068; 14722</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>421.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>433.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>462.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>392.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>482.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>532.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>586.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>539.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>903.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>965.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>1048.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>931.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>454.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>486.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1030648</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1053786</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1093442</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1191415</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>61586</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>71824</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>1055047</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1098697</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1163321</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1350468</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>68856</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>69724</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>2085695</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>2152483</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>2256763</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>2541884</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>130442</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>141548</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>943307; 1126758</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>968015; 1159539</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1002803; 1187760</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1085448; 1307720</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>53359; 70675</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>63497; 82337</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>965934; 1140502</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1023104; 1181686</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1087493; 1250443</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1253843; 1452413</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>62029; 77608</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>62185; 77551</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1965821; 2218783</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>2026707; 2275686</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>2127109; 2381367</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>2392369; 2700841</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>118654; 142319</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>130566; 153528</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
